--- a/results/I3_N5_M3_T45_C100_DepCentral_s3_res.xlsx
+++ b/results/I3_N5_M3_T45_C100_DepCentral_s3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>311.59319421489</v>
+        <v>376.8020010033806</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.404000043869019</v>
+        <v>2.065000057220459</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34.49319421527048</v>
+        <v>32.80200100338062</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1.311076145133805</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1.311076145133805</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>277.0999999996195</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10">
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,28 @@
         <is>
           <t>alpha</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -656,7 +678,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +689,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -700,7 +722,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -882,7 +904,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>40.11016360191877</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +912,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>41.38795072015898</v>
+        <v>36.23570364914818</v>
       </c>
     </row>
     <row r="6">
@@ -906,7 +928,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>34.22809649842556</v>
+        <v>32.35722294236239</v>
       </c>
     </row>
     <row r="8">
@@ -944,7 +966,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -972,6 +994,34 @@
         <is>
           <t>y</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1073,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>65.72000000004664</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1134,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>59.4400000000478</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1145,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>69.37500000004729</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1156,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>64.18000000004577</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1117,7 +1167,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>63.18500000004678</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
@@ -1128,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>85.68999999999869</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13">
@@ -1139,7 +1189,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>96.85999999999876</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1200,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>81.1299999999992</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
@@ -1161,7 +1211,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>89.875</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16">
@@ -1172,7 +1222,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>86.54000000000087</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
@@ -1183,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>112.9200000000546</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18">
@@ -1194,7 +1244,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>114.9300000000476</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19">
@@ -1205,7 +1255,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>123.58499999995</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20">
@@ -1216,7 +1266,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>108.7649999999539</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21">
@@ -1227,7 +1277,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>115.85</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>67.3200000000088</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23">
@@ -1249,7 +1299,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>76.2050000000072</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
@@ -1260,7 +1310,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>81.19000000000779</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25">
@@ -1271,7 +1321,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>70.59000000000742</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26">
@@ -1282,7 +1332,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>74.5850000000064</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27">
@@ -1293,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>111.6949999999505</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28">
@@ -1304,7 +1354,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>104.884999999951</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29">
@@ -1315,7 +1365,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>111.7349999999514</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30">
@@ -1326,7 +1376,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>119.5</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31">
@@ -1337,7 +1387,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>114.6849999999503</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32">
@@ -1348,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>112.9200000000546</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33">
@@ -1359,7 +1409,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>114.9300000000476</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34">
@@ -1370,7 +1420,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>123.58499999995</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35">
@@ -1381,7 +1431,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>108.7649999999539</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36">
@@ -1392,7 +1442,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>115.85</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37">
@@ -1403,7 +1453,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>85.68999999999869</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38">
@@ -1414,7 +1464,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>96.85999999999876</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39">
@@ -1425,7 +1475,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>81.1299999999992</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40">
@@ -1436,7 +1486,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>89.875</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41">
@@ -1447,7 +1497,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>86.54000000000087</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42">
@@ -1458,7 +1508,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>111.6949999999506</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43">
@@ -1469,7 +1519,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>104.8849999999511</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44">
@@ -1480,7 +1530,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>111.7349999999515</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45">
@@ -1491,7 +1541,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>119.5</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46">
@@ -1502,7 +1552,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>114.6849999999504</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1599,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>12.92000000005464</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -1560,7 +1610,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>14.93000000004759</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -1571,7 +1621,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>23.58499999995001</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -1582,7 +1632,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>8.764999999953943</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
@@ -1593,7 +1643,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>15.85</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -1604,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -1615,7 +1665,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
@@ -1626,7 +1676,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1637,7 +1687,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -1648,7 +1698,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1659,7 +1709,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>11.6949999999506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1670,7 +1720,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>4.884999999951106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1681,7 +1731,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>11.73499999995147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1692,7 +1742,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1703,7 +1753,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>14.68499999995038</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
